--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2129"/>
+  <dimension ref="A1:H2145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -64143,6 +64143,486 @@
         <v>135.73</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2130" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2130">
+        <v>124.09</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2131" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2131">
+        <v>69.16</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2132">
+        <v>102.34</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2133" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2133">
+        <v>111.33</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2134" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2134">
+        <v>68.52</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2135" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2135" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2135">
+        <v>93.81</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2136" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2136" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2136">
+        <v>134.31</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2137" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2137">
+        <v>130.58</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2138" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2138" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2138">
+        <v>168.95</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2139" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2139" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2139">
+        <v>134.18</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2140" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2140" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2140">
+        <v>125.35</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2141" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2141" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2141">
+        <v>105.21</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2142" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2142" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2142">
+        <v>132.75</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2143" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2143">
+        <v>129.21</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2144" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2144" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2144">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2145" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="H2145">
+        <v>124.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2145"/>
+  <dimension ref="A1:H2161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -64623,6 +64623,486 @@
         <v>124.14</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2146" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2146">
+        <v>122.77</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2147" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2147">
+        <v>71.93000000000001</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2148">
+        <v>101.76</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2149" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2149">
+        <v>114.62</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2150" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2150">
+        <v>72.41</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2151" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2151">
+        <v>94.23</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2152" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2152">
+        <v>147.01</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2153" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2153">
+        <v>124.71</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2154" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2154" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2154">
+        <v>149.39</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2155" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2155" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2155">
+        <v>121.65</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2156" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2156" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2156">
+        <v>121.49</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2157" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2157" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2157">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2158" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2158" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2158">
+        <v>122.66</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2159" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2159" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2159">
+        <v>132.98</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2160" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2160" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2160">
+        <v>122.53</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2161" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="H2161">
+        <v>122.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2161"/>
+  <dimension ref="A1:H2177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65103,6 +65103,486 @@
         <v>122.02</v>
       </c>
     </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2162" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2162">
+        <v>125.25</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2163" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2163">
+        <v>69.91</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2164" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2164">
+        <v>106.54</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2165" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2165" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2165">
+        <v>115.08</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2166" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2166" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2166">
+        <v>72.18000000000001</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2167" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2167" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2167">
+        <v>98.34999999999999</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2168" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2168" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2168">
+        <v>146.29</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2169" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2169" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2169">
+        <v>123.83</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2170" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2170" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2170">
+        <v>152.23</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2171" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2171" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2171">
+        <v>137.19</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2172" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2172" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2172">
+        <v>130.42</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2173" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2173" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2173">
+        <v>102.82</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2174" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2174">
+        <v>122.02</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2175" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2175">
+        <v>133.88</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2176" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2176">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2177" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="H2177">
+        <v>124.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2177"/>
+  <dimension ref="A1:H2193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65583,6 +65583,486 @@
         <v>124.6</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2178" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2178">
+        <v>135.76</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2179">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2180" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2180">
+        <v>110.01</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2181" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2181" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2181">
+        <v>124.55</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2182" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2182" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2182">
+        <v>69.38</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2183" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2183" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2183">
+        <v>99.87</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2184" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2184" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2184">
+        <v>159.98</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2185" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2185" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2185">
+        <v>149.26</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2186" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2186">
+        <v>159.97</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2187" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2187" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2187">
+        <v>141.84</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2188" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2188">
+        <v>130.46</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2189" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2189" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2189">
+        <v>100.44</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2190" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2190" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2190">
+        <v>135.37</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2191" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2191" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2191">
+        <v>142.92</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2192" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2192" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2192">
+        <v>143.56</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2193" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="H2193">
+        <v>134.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2193"/>
+  <dimension ref="A1:H2209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66063,6 +66063,486 @@
         <v>134.78</v>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2194" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2194">
+        <v>172.06</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2195" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2195">
+        <v>77.14</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2196" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2196">
+        <v>118.97</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2197" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2197" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2197">
+        <v>145.06</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2198" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2198" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2198">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2199" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2199">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2200" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2200" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2200">
+        <v>239.7</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2201" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2201" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2201">
+        <v>204.3</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2202" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2202" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2202">
+        <v>212.84</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2203" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2203" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2203">
+        <v>163.15</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2204" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2204" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2204">
+        <v>164.4</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2205" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2205" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2205">
+        <v>112.86</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2206" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2206">
+        <v>158.62</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2207" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2207">
+        <v>215.64</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2208" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2208">
+        <v>182.87</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2209" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="H2209">
+        <v>167.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2209"/>
+  <dimension ref="A1:H2225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66543,6 +66543,486 @@
         <v>167.85</v>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2210" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2210">
+        <v>138.72</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2211" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2211">
+        <v>75.03</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2212" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2212">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2213" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2213" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2213">
+        <v>104.19</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2214" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2214" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2214">
+        <v>74.47</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2215" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2215" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2215">
+        <v>111.02</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2216" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2216" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2216">
+        <v>198.48</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2217" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2217" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2217">
+        <v>158.53</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2218" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2218" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2218">
+        <v>200.3</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2219" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2219" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2219">
+        <v>146.06</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2220" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2220" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2220">
+        <v>143.86</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2221" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2221" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2221">
+        <v>105.58</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2222" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2222" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2222">
+        <v>134.35</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2223" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2223" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2223">
+        <v>176.95</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2224" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2224">
+        <v>162.79</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2225" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2225" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="H2225">
+        <v>128.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2225"/>
+  <dimension ref="A1:H2241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -67023,6 +67023,486 @@
         <v>128.88</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2226">
+        <v>130.2</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2227" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2227">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2228" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2228">
+        <v>90.59</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2229" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2229" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2229">
+        <v>87.31</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2230" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2230">
+        <v>63.63</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2231" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2231" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2231">
+        <v>75.76000000000001</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2232" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2232">
+        <v>204.72</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2233">
+        <v>160.94</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2234" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2234">
+        <v>202.9</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2235">
+        <v>155.39</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2236">
+        <v>137.01</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2237" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2237">
+        <v>116.42</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2238">
+        <v>118.92</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2239">
+        <v>166.88</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2240" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2240">
+        <v>158.15</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2241" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="H2241">
+        <v>117.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2241"/>
+  <dimension ref="A1:H2257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -67503,6 +67503,486 @@
         <v>117.53</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2242" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2242">
+        <v>156.95</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2243" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2243">
+        <v>80.01000000000001</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2244" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2244">
+        <v>102.02</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2245" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2245" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2245">
+        <v>109.27</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2246" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2246" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2246">
+        <v>75.18000000000001</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2247" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2247" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2247">
+        <v>88.27</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2248" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2248" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2248">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2249">
+        <v>187.31</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2250" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2250">
+        <v>215.37</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2251">
+        <v>172.28</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2252" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2252" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2252">
+        <v>149.61</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2253" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2253">
+        <v>111.89</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2254" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2254" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2254">
+        <v>139.18</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2255" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2255" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2255">
+        <v>220.54</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2256" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2256">
+        <v>169.59</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2257" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2257" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="H2257">
+        <v>155.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2257"/>
+  <dimension ref="A1:H2273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -67983,6 +67983,486 @@
         <v>155.57</v>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2258" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2258">
+        <v>136.64</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2259" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2259">
+        <v>79.23999999999999</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2260" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2260">
+        <v>113.01</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2261" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2261" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2261">
+        <v>123.96</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2262" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2262" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2262">
+        <v>79.81</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2263" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2263" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2263">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2264" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2264">
+        <v>158.62</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2265" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2265">
+        <v>137.67</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2266" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2266" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2266">
+        <v>177.36</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2267" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2267">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2268" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2268" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2268">
+        <v>141.58</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2269" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2269" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2269">
+        <v>107.94</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2270" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2270" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2270">
+        <v>138.68</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2271" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2271">
+        <v>140.29</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2272" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2272" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2272">
+        <v>147.83</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="H2273">
+        <v>133.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2273"/>
+  <dimension ref="A1:H2289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -68463,6 +68463,486 @@
         <v>133.17</v>
       </c>
     </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2274">
+        <v>135.66</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2275" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2275">
+        <v>79.45</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2276" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2276">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2277" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2277" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2277">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2278" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2278" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2278">
+        <v>77.16</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2279" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2279" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2279">
+        <v>104.56</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2280" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2280">
+        <v>160.84</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2281" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2281" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2281">
+        <v>141.02</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2282" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2282">
+        <v>179.68</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2283" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2283">
+        <v>173.07</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2284">
+        <v>137.37</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2285">
+        <v>121.68</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2286" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2286">
+        <v>135.37</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2287">
+        <v>143.15</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2288">
+        <v>145.85</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2289" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2289" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="H2289">
+        <v>129.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2289"/>
+  <dimension ref="A1:H2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -68943,6 +68943,486 @@
         <v>129.01</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2290" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2290">
+        <v>138.21</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2291" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2291">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2292">
+        <v>106.29</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2293" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2293">
+        <v>121.43</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2294">
+        <v>81.31999999999999</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2295">
+        <v>95.58</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2296" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2296">
+        <v>151.8</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2297" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2297">
+        <v>154.86</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2298" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2298">
+        <v>177.66</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2299" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2299">
+        <v>175.45</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2300" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2300">
+        <v>135.63</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2301">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2302" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2302" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2302">
+        <v>138.58</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2303" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2303" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2303">
+        <v>148.21</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2304">
+        <v>144.27</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2305" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="H2305">
+        <v>135.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2305"/>
+  <dimension ref="A1:H2321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -69423,6 +69423,486 @@
         <v>135.08</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2306">
+        <v>144.93</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2307">
+        <v>79.76000000000001</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2308">
+        <v>109.84</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2309" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2309">
+        <v>121.17</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2310" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2310">
+        <v>83.56999999999999</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2311" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2311" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2311">
+        <v>96.48</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2312">
+        <v>179.06</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2313" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2313">
+        <v>165.31</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2314" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2314">
+        <v>195.23</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2315">
+        <v>183.95</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2316" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2316">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2317">
+        <v>136.37</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2318">
+        <v>157.32</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2319">
+        <v>161.68</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2320" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2320">
+        <v>154.17</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2321" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="H2321">
+        <v>134.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2321"/>
+  <dimension ref="A1:H2337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -69903,6 +69903,486 @@
         <v>134.29</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2322">
+        <v>137.26</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2323">
+        <v>76.43000000000001</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2324" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2324">
+        <v>112.97</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2325" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2325">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2326" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2326">
+        <v>77.90000000000001</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2327" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2327" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2327">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2328" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2328">
+        <v>170.46</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2329" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2329" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2329">
+        <v>147.99</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2330" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2330">
+        <v>194.62</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2331" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2331" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2331">
+        <v>177.54</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2332">
+        <v>142.52</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2333" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2333">
+        <v>126.07</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2334">
+        <v>135.51</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2335">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2336" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2336">
+        <v>153.86</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="H2337">
+        <v>129.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2337"/>
+  <dimension ref="A1:H2353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -70383,6 +70383,486 @@
         <v>129.67</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2338">
+        <v>146.98</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2339">
+        <v>78.86</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2340">
+        <v>89.52</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2341" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2341">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2342">
+        <v>71.65000000000001</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2343" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2343">
+        <v>75.81</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2344" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2344">
+        <v>200.15</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2345">
+        <v>174.86</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2346">
+        <v>220.58</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2347">
+        <v>210.11</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2348">
+        <v>144.21</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2349">
+        <v>122.28</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2350" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2350">
+        <v>149.34</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2351">
+        <v>164.83</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2352" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2352" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2352">
+        <v>167.93</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2353" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="H2353">
+        <v>138.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2353"/>
+  <dimension ref="A1:H2369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -70863,6 +70863,486 @@
         <v>138.94</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2354">
+        <v>143.85</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2355">
+        <v>80.43000000000001</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2356">
+        <v>111.14</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2357" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2357">
+        <v>126.54</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2358" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2358">
+        <v>77.92</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2359" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2359">
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2360">
+        <v>163.87</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2361">
+        <v>150.39</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2362">
+        <v>199.68</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2363">
+        <v>193.45</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2364">
+        <v>138.86</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2365">
+        <v>127.34</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2366">
+        <v>146.33</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2367" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2367">
+        <v>153.32</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2368">
+        <v>155.91</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2369" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="H2369">
+        <v>138.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2369"/>
+  <dimension ref="A1:H2385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71343,6 +71343,486 @@
         <v>138.39</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2370" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2370">
+        <v>145.65</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2371" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2371">
+        <v>86.45</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2372" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2372">
+        <v>116.13</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2373" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2373" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2373">
+        <v>128.41</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2374" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2374" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2374">
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2375">
+        <v>107.35</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2376" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2376" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2376">
+        <v>168.18</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2377" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2377">
+        <v>160.94</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2378" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2378" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2378">
+        <v>203.74</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2379" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2379" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2379">
+        <v>200.34</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2380" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2380" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2380">
+        <v>145.9</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2381" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2381" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2381">
+        <v>128.06</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2382" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2382" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2382">
+        <v>142.78</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2383" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2383">
+        <v>149.63</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2384" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2384" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2384">
+        <v>155.27</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2385" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="H2385">
+        <v>139.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2385"/>
+  <dimension ref="A1:H2401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71823,6 +71823,486 @@
         <v>139.75</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2386" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2386">
+        <v>148.7</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2387">
+        <v>84.98</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2388">
+        <v>123.26</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2389" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2389" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2389">
+        <v>129.84</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2390" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2390">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2391" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2391" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2391">
+        <v>106.61</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2392" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2392" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2392">
+        <v>165.98</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2393" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2393" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2393">
+        <v>157.35</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2394" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2394">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2395">
+        <v>191.09</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2396">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2397">
+        <v>131.04</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2398" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2398">
+        <v>150.56</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2399" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2399">
+        <v>158.76</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2400" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2400" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2400">
+        <v>162.08</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2401" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2401" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="H2401">
+        <v>143.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2401"/>
+  <dimension ref="A1:H2417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -72303,6 +72303,486 @@
         <v>143.45</v>
       </c>
     </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2402" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2402">
+        <v>156.97</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2403" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2403">
+        <v>88.18000000000001</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2404" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2404">
+        <v>131.37</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2405" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2405" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2405">
+        <v>143.06</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2406" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2406" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2406">
+        <v>86.84999999999999</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2407" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2407" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2407">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2408" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2408" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2408">
+        <v>181.37</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2409" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2409" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2409">
+        <v>167.81</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2410" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2410" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2410">
+        <v>233.18</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2411" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2411" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2411">
+        <v>201.75</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2412" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2412" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2412">
+        <v>152.58</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2413" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2413" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2413">
+        <v>132.16</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2414" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2414" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2414">
+        <v>156.76</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2415" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2415" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2415">
+        <v>157.93</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2416" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2416">
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2417" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2417" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="H2417">
+        <v>148.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2417"/>
+  <dimension ref="A1:H2433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -72783,6 +72783,486 @@
         <v>148.59</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2418" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2418">
+        <v>184.41</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2419" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2419">
+        <v>91.39</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2420" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2420">
+        <v>146.1</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2421" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2421" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2421">
+        <v>155.2</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2422" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2422" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2422">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2423" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2423">
+        <v>127.72</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2424" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2424">
+        <v>230.28</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2425" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2425" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2425">
+        <v>204.78</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2426" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2426" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2426">
+        <v>241.22</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2427" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2427" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2427">
+        <v>222.76</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2428" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2428" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2428">
+        <v>179.59</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2429" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2429" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2429">
+        <v>151.79</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2430" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2430" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2430">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2431" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2431" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2431">
+        <v>210.7</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2432" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2432" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2432">
+        <v>201.87</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2433" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2433" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="H2433">
+        <v>181.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2433"/>
+  <dimension ref="A1:H2449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -73263,6 +73263,486 @@
         <v>181.07</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2434">
+        <v>154.75</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2435" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2435">
+        <v>92.09</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2436" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2436">
+        <v>147.03</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2437" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2437" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2437">
+        <v>118.61</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2438" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2438" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2438">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2439" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2439" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2439">
+        <v>133.62</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2440" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2440" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2440">
+        <v>197.76</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2441" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2441" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2441">
+        <v>171.28</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2442" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2442" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2442">
+        <v>245.73</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2443" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2443" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2443">
+        <v>207.23</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2444" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2444" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2444">
+        <v>157.17</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2445" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2445" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2445">
+        <v>134.47</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2446" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2446" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2446">
+        <v>160.36</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2447" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2447" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2447">
+        <v>184.29</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2448" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2448" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2448">
+        <v>176.66</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2449" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2449" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="H2449">
+        <v>142.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2449"/>
+  <dimension ref="A1:H2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -73743,6 +73743,486 @@
         <v>142.7</v>
       </c>
     </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2450" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2450">
+        <v>168.44</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2451" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2451">
+        <v>87.88</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2452" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2452">
+        <v>108.69</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2453" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2453" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2453">
+        <v>123.12</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2454" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2454" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2454">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2455" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2455" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2455">
+        <v>91.89</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2456" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2456" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2456">
+        <v>213.04</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2457" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2457" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2457">
+        <v>197.89</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2458" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2458" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2458">
+        <v>256.7</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2459" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2459" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2459">
+        <v>221.8</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2460" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2460" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2460">
+        <v>159.01</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2461" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2461" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2461">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2462" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2462" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2462">
+        <v>158.99</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2463" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2463" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2463">
+        <v>216.38</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2464" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2464" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2464">
+        <v>189.48</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2465" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2465" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="H2465">
+        <v>162.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2465"/>
+  <dimension ref="A1:H2481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -74223,6 +74223,486 @@
         <v>162.71</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2466" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2466">
+        <v>165.35</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2467" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2467">
+        <v>96.28</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2468" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2468">
+        <v>130.15</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2469" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2469" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2469">
+        <v>141.09</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2470" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2470" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2470">
+        <v>93.81999999999999</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2471" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2471" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2471">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2472" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2472" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2472">
+        <v>193.32</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2473" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2473" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2473">
+        <v>179.82</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2474" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2474" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2474">
+        <v>257.67</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2475" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2475" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2475">
+        <v>226.36</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2476" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2476" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2476">
+        <v>162.49</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2477" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2477" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2477">
+        <v>149.92</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2478" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2478" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2478">
+        <v>165.3</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2479" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2479" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2479">
+        <v>171.05</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2480" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2480" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2480">
+        <v>186.73</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2481" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2481" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="H2481">
+        <v>155.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2481"/>
+  <dimension ref="A1:H2497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -74703,6 +74703,486 @@
         <v>155.44</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2482" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2482">
+        <v>162.89</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2483" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2483">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2484" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2484">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2485" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2485" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2485">
+        <v>142.06</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2486" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2486" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2486">
+        <v>93.06999999999999</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2487" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2487" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2487">
+        <v>117.26</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2488" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2488" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2488">
+        <v>189.76</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2489" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2489" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2489">
+        <v>173.4</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2490" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2490" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2490">
+        <v>249.45</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2491" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2491" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2491">
+        <v>226.27</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2492" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2492" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2492">
+        <v>167.32</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2493" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2493" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2493">
+        <v>134.17</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2494" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2494" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2494">
+        <v>157.9</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2495" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2495" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2495">
+        <v>166.89</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2496" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2496" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2496">
+        <v>184.58</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2497" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2497" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="H2497">
+        <v>153.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2497"/>
+  <dimension ref="A1:H2513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -75183,6 +75183,486 @@
         <v>153.93</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2498" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2498">
+        <v>168.42</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2499" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2499">
+        <v>94.45999999999999</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2500" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2500">
+        <v>137.97</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2501" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2501" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2501">
+        <v>150.73</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2502" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2502" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2502">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2503" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2503" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2503">
+        <v>129.67</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2504" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2504" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2504">
+        <v>203.76</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2505" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2505" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2505">
+        <v>174.84</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2506" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2506" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2506">
+        <v>264.95</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2507" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2507" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2507">
+        <v>246.03</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2508" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2508" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2508">
+        <v>172.88</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2509" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2509" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2509">
+        <v>139.46</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2510" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2510" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2510">
+        <v>159.26</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2511" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2511" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2511">
+        <v>172.45</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2512" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2512" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2512">
+        <v>180.72</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2513" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2513" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="H2513">
+        <v>157.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2513"/>
+  <dimension ref="A1:H2529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -75663,6 +75663,486 @@
         <v>157.98</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2514" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2514">
+        <v>178.81</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2515" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2515">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2516" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2516">
+        <v>139.98</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2517" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2517" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2517">
+        <v>158.03</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2518" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2518" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2518">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2519" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2519" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2519">
+        <v>127.48</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2520" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2520" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2520">
+        <v>214.24</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2521" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2521" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2521">
+        <v>202.03</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2522" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2522" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2522">
+        <v>249.02</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2523" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2523" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2523">
+        <v>248.12</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2524" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2524" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2524">
+        <v>170.42</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2525" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2525" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2525">
+        <v>137.75</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2526" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2526" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2526">
+        <v>168.84</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2527" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2527" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2527">
+        <v>189.52</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2528" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2528" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2528">
+        <v>189.57</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2529" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2529" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="H2529">
+        <v>172.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2529"/>
+  <dimension ref="A1:H2545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76143,6 +76143,486 @@
         <v>172.84</v>
       </c>
     </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2530" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2530">
+        <v>197.11</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2531" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2531">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2532" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2532">
+        <v>150.77</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2533" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2533" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2533">
+        <v>165.92</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2534" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2534" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2534">
+        <v>103.95</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2535" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2535" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2535">
+        <v>141.81</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2536" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2536" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2536">
+        <v>249.03</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2537" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2537" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2537">
+        <v>231.68</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2538" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2538" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2538">
+        <v>280.43</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2539" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2539" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2539">
+        <v>272.57</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2540" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2540" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2540">
+        <v>180.25</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2541" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2541" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2541">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2542" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2542" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2542">
+        <v>189.53</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2543" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2543" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2543">
+        <v>228.25</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2544" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2544" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2544">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2545" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2545" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="H2545">
+        <v>185.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2545"/>
+  <dimension ref="A1:H2561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76623,6 +76623,486 @@
         <v>185.94</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2546" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2546">
+        <v>166.63</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2547" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2547">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2548" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2548">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2549" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2549" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2549">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2550" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2550" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2550">
+        <v>87.22</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2551" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2551" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2551">
+        <v>122.47</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2552" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2552" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2552">
+        <v>223.71</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2553" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2553" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2553">
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2554" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2554" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2554">
+        <v>271.62</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2555" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2555" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2555">
+        <v>264.94</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2556" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2556" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2556">
+        <v>168.39</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2557" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2557" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2557">
+        <v>145.57</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2558" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2558" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2558">
+        <v>176.27</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2559" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2559" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2559">
+        <v>201.37</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2560" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2560" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2560">
+        <v>195.13</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2561" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2561" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="H2561">
+        <v>146.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2561"/>
+  <dimension ref="A1:H2577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77103,6 +77103,486 @@
         <v>146.88</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2562" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2562">
+        <v>186.01</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2563" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2563">
+        <v>89.91</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2564" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2564">
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2565" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2565" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2565">
+        <v>116.87</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2566" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2566" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2566">
+        <v>78.20999999999999</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2567" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2567" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2567">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2568" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2568" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2568">
+        <v>259.44</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2569" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2569" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2569">
+        <v>242.97</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2570" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2570" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2570">
+        <v>328.19</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2571" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2571" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2571">
+        <v>332.75</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2572" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2572" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2572">
+        <v>179.24</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2573" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2573" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2573">
+        <v>169.76</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2574" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2574" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2574">
+        <v>193.75</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2575" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2575" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2575">
+        <v>229.25</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2576" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2576" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2576">
+        <v>216.99</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2577" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2577" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="H2577">
+        <v>165.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2577"/>
+  <dimension ref="A1:H2593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77583,6 +77583,486 @@
         <v>165.78</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2578" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2578">
+        <v>190.88</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2579" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2579">
+        <v>96.04000000000001</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2580" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2580">
+        <v>133.06</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2581" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2581" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2581">
+        <v>144.82</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2582" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2582" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2582">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2583" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2583" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2583">
+        <v>107.41</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2584" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2584" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2584">
+        <v>253.76</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2585" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2585" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2585">
+        <v>221.2</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2586" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2586" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2586">
+        <v>338.03</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2587" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2587" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2587">
+        <v>337.24</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2588" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2588" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2588">
+        <v>191.47</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2589" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2589" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2589">
+        <v>178.25</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2590" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2590" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2590">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2591" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2591" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2591">
+        <v>207.05</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2592" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2592" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2592">
+        <v>219.85</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2593" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2593" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="H2593">
+        <v>168.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2593"/>
+  <dimension ref="A1:H2609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78063,6 +78063,486 @@
         <v>168.54</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2594" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2594">
+        <v>186.51</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2595" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2595">
+        <v>97.34</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2596" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2596">
+        <v>141.37</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2597" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2597" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2597">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2598" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2598" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2598">
+        <v>94.98</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2599" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2599" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2599">
+        <v>122.37</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2600" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2600" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2600">
+        <v>225.08</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2601" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2601" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2601">
+        <v>207.12</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2602" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2602" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2602">
+        <v>341.02</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2603" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2603" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2603">
+        <v>315.87</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2604" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2604" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2604">
+        <v>183.82</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2605" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2605" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2605">
+        <v>163.63</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2606" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2606" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2606">
+        <v>188.68</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2607" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2607" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2607">
+        <v>193.55</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2608" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2608" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2608">
+        <v>211.82</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2609" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2609" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="H2609">
+        <v>170.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2609"/>
+  <dimension ref="A1:H2625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78543,6 +78543,486 @@
         <v>170.85</v>
       </c>
     </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2610" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2610">
+        <v>198.51</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2611" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2611">
+        <v>100.91</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2612" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2612">
+        <v>147.58</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2613" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2613" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2613">
+        <v>156.92</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2614" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2614" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2614">
+        <v>101.85</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2615" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2615" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2615">
+        <v>127.27</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2616" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2616" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2616">
+        <v>253.45</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2617" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2617" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2617">
+        <v>230.63</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2618" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2618" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2618">
+        <v>361.3</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2619" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2619" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2619">
+        <v>336.76</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2620" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2620" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2620">
+        <v>187.43</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2621" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2621" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2621">
+        <v>175.78</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2622" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2622" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2622">
+        <v>189.81</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2623" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2623" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2623">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2624" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2624" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2624">
+        <v>225.11</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2625" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2625" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="H2625">
+        <v>182.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2625"/>
+  <dimension ref="A1:H2641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79023,6 +79023,486 @@
         <v>182.06</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2626" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2626">
+        <v>206.3</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2627" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2627">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2628" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2628">
+        <v>150.49</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2629" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2629" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2629">
+        <v>164.62</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2630" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2630" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2630">
+        <v>98.97</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2631" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2631" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2631">
+        <v>135.49</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2632" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2632" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2632">
+        <v>264.88</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2633" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2633" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2633">
+        <v>249.84</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2634" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2634" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2634">
+        <v>343.17</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2635" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2635" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2635">
+        <v>369.24</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2636" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2636" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2636">
+        <v>188.65</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2637" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2637" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2637">
+        <v>181.66</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2638" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2638">
+        <v>215.78</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2639" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2639">
+        <v>225.84</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2640" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2640" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2640">
+        <v>231.69</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2641" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2641" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="H2641">
+        <v>180.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2641"/>
+  <dimension ref="A1:H2657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79503,6 +79503,486 @@
         <v>180.97</v>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2642" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2642">
+        <v>225.97</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2643" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2643">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2644" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2644">
+        <v>162.12</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2645" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2645" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2645">
+        <v>167.96</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2646" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2646" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2646">
+        <v>101.03</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2647" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2647">
+        <v>139.39</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2648" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2648" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2648">
+        <v>300.64</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2649" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2649">
+        <v>296.21</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2650" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2650" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2650">
+        <v>375.55</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2651" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2651" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2651">
+        <v>367.63</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2652" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2652" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2652">
+        <v>201.21</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2653" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2653" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2653">
+        <v>196.58</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2654" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2654" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2654">
+        <v>232.73</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2655" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2655" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2655">
+        <v>267.29</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2656" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2656" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2656">
+        <v>253.31</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2657" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2657" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="H2657">
+        <v>200.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2657"/>
+  <dimension ref="A1:H2673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -79983,6 +79983,486 @@
         <v>200.83</v>
       </c>
     </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2658" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2658">
+        <v>189.48</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2659" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2659">
+        <v>98.14</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2660" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2660">
+        <v>153.86</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2661" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2661" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2661">
+        <v>126.99</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2662" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2662" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2662">
+        <v>99.83</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2663">
+        <v>135.29</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2664" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2664">
+        <v>276.91</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2665" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2665" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2665">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2666" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2666" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2666">
+        <v>338.81</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2667" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2667" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2667">
+        <v>349.39</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2668" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2668" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2668">
+        <v>172.41</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2669" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2669" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2669">
+        <v>186.95</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2670" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2670">
+        <v>205.97</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2671" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2671" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2671">
+        <v>231.16</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2672" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2672">
+        <v>222.63</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2673" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2673" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="H2673">
+        <v>157.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2673"/>
+  <dimension ref="A1:H2689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -80463,6 +80463,486 @@
         <v>157.89</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2674" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2674">
+        <v>214.64</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2675" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2675">
+        <v>88.92</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2676">
+        <v>101.34</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2677" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2677">
+        <v>119.17</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2678" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2678">
+        <v>75.81</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2679" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2679" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2679">
+        <v>73.87</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2680" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2680" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2680">
+        <v>310.4</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2681" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2681" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2681">
+        <v>296.65</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2682" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2682" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2682">
+        <v>419.97</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2683" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2683" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2683">
+        <v>407.86</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2684">
+        <v>185.29</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2685" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2685">
+        <v>223.02</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2686" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2686">
+        <v>216.94</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2687" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2687">
+        <v>289.83</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2688" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2688" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2688">
+        <v>272.75</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2689" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2689" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="H2689">
+        <v>180.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2689"/>
+  <dimension ref="A1:H2705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -80943,6 +80943,486 @@
         <v>180.78</v>
       </c>
     </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2690" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2690">
+        <v>209.55</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2691" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2691">
+        <v>97.34</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2692">
+        <v>137.91</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2693" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2693" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2693">
+        <v>145.35</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2694" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2694" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2694">
+        <v>87.54000000000001</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2695" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2695" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2695">
+        <v>106.81</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2696" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2696" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2696">
+        <v>300.24</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2697" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2697" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2697">
+        <v>266.56</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2698" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2698" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2698">
+        <v>404.04</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2699" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2699">
+        <v>433.57</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2700" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2700" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2700">
+        <v>191.57</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2701" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2701" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2701">
+        <v>206.2</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2702" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2702" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2702">
+        <v>229.04</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2703" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2703" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2703">
+        <v>232.72</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2704" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2704" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2704">
+        <v>245.76</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="H2705">
+        <v>172.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2705"/>
+  <dimension ref="A1:H2721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -81423,6 +81423,486 @@
         <v>172.16</v>
       </c>
     </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2706" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2706">
+        <v>211.89</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2707" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2707">
+        <v>98.18000000000001</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2708" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2708">
+        <v>142.26</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2709" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2709" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2709">
+        <v>149.46</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2710" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2710">
+        <v>90.65000000000001</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2711" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2711">
+        <v>114.92</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2712" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2712">
+        <v>318.12</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2713" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2713" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2713">
+        <v>273.87</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2714" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2714" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2714">
+        <v>388.82</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2715" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2715" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2715">
+        <v>448.87</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2716" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2716" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2716">
+        <v>197.22</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2717" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2717" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2717">
+        <v>210.57</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2718" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2718" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2718">
+        <v>224.56</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2719" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2719" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2719">
+        <v>233.27</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2720" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2720" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2720">
+        <v>254.78</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2721" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2721" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="H2721">
+        <v>169.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2721"/>
+  <dimension ref="A1:H2737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -81903,6 +81903,486 @@
         <v>169.59</v>
       </c>
     </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2722" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2722">
+        <v>219.72</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2723" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2723">
+        <v>103.73</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2724" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2724">
+        <v>158.32</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2725" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2725" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2725">
+        <v>153.35</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2726" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2726" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2726">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2727" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2727" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2727">
+        <v>131.75</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2728" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2728" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2728">
+        <v>339.48</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2729">
+        <v>275.81</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2730" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2730">
+        <v>422.86</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2731" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2731" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2731">
+        <v>429.65</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2732" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2732" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2732">
+        <v>201.72</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2733" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2733" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2733">
+        <v>208.51</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2734" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2734" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2734">
+        <v>232.52</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2735" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2735">
+        <v>247.23</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2736" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2736">
+        <v>260.84</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="H2737">
+        <v>180.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2737"/>
+  <dimension ref="A1:H2753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -82383,6 +82383,486 @@
         <v>180.3</v>
       </c>
     </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2738">
+        <v>224.58</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2739">
+        <v>103.05</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2740">
+        <v>154.36</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2741" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2741" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2741">
+        <v>149.24</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2742" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2742" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2742">
+        <v>97.63</v>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2743" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2743" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2743">
+        <v>128.99</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2744" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2744">
+        <v>339.8</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2745" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2745" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2745">
+        <v>298.13</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2746" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2746" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2746">
+        <v>432.57</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2747" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2747" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2747">
+        <v>447.87</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2748" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2748" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2748">
+        <v>203.99</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2749" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2749">
+        <v>221.67</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2750">
+        <v>237.3</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2751" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2751" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2751">
+        <v>261.68</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2752" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2752">
+        <v>267.95</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="H2753">
+        <v>183.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2753"/>
+  <dimension ref="A1:H2769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -82863,6 +82863,486 @@
         <v>183.03</v>
       </c>
     </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2754" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2754">
+        <v>242.93</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2755" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2755">
+        <v>101.87</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2756" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2756">
+        <v>156.28</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2757" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2757" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2757">
+        <v>148.57</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2758" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2758">
+        <v>92.58</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2759" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2759">
+        <v>124.71</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2760" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2760">
+        <v>395.21</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2761" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2761" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2761">
+        <v>352.09</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2762" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2762" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2762">
+        <v>458.1</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2763" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2763" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2763">
+        <v>490.07</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2764" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2764" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2764">
+        <v>214.47</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2765" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2765" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2765">
+        <v>227.02</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2766" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2766" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2766">
+        <v>262.56</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2767" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2767" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2767">
+        <v>304.27</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2768" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2768" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2768">
+        <v>287.82</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2769" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2769" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="H2769">
+        <v>191.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2769"/>
+  <dimension ref="A1:H2785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -83343,6 +83343,486 @@
         <v>191.81</v>
       </c>
     </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2770" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2770" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2770">
+        <v>221.68</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2771" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2771">
+        <v>100.04</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2772" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2772">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2773" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2773" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2773">
+        <v>126.41</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2774" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2774" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2774">
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2775" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2775">
+        <v>139.51</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2776" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2776">
+        <v>366.73</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2777" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2777" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2777">
+        <v>318.12</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2778" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2778" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2778">
+        <v>434.77</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2779" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2779" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2779">
+        <v>532.84</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2780" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2780">
+        <v>193.35</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2781" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2781" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2781">
+        <v>212.65</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2782" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2782" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2782">
+        <v>251.36</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2783" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2783" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2783">
+        <v>279.99</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2784" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2784" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2784">
+        <v>271.91</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2785" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="H2785">
+        <v>166.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2785"/>
+  <dimension ref="A1:H2801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -83823,6 +83823,486 @@
         <v>166.59</v>
       </c>
     </row>
+    <row r="2786">
+      <c r="A2786" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2786" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2786">
+        <v>246.2</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2787" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2787">
+        <v>93.56</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2788" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2788">
+        <v>114.34</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2789" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2789" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2789">
+        <v>114.72</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2790" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2790" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2790">
+        <v>74.38</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2791" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2791" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2791">
+        <v>71.40000000000001</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2792" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2792" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2792">
+        <v>418.47</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2793" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2793" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2793">
+        <v>393.48</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2794" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2794" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2794">
+        <v>509.4</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2795" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2795" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2795">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2796" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2796" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2796">
+        <v>209.78</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2797" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2797" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2797">
+        <v>244.97</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2798" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2798" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2798">
+        <v>267.7</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2799" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2799" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2799">
+        <v>326.82</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2800" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2800" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2800">
+        <v>313.71</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2801" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2801" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="H2801">
+        <v>183.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2801"/>
+  <dimension ref="A1:H2817"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -84303,6 +84303,486 @@
         <v>183.03</v>
       </c>
     </row>
+    <row r="2802">
+      <c r="A2802" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2802" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2802">
+        <v>258.62</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2803" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2803">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2804" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2804">
+        <v>154.81</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2805" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2805" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2805">
+        <v>133.64</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2806" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2806">
+        <v>86.91</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2807" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2807" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2807">
+        <v>106.86</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2808" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2808" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2808">
+        <v>462.09</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2809" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2809" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2809">
+        <v>371.93</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2810" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2810" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2810">
+        <v>513.5</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2811" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2811" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2811">
+        <v>669.04</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2812" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2812" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2812">
+        <v>222.17</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2813" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2813" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2813">
+        <v>250.26</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2814" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2814">
+        <v>262.57</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2815" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2815">
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2816" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2816">
+        <v>306.93</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2817" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="H2817">
+        <v>195.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2817"/>
+  <dimension ref="A1:H2833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -84783,6 +84783,486 @@
         <v>195.34</v>
       </c>
     </row>
+    <row r="2818">
+      <c r="A2818" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2818" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2818" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2818">
+        <v>252.13</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2819" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2819" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2819">
+        <v>105.48</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2820" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2820" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2820">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2821" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2821">
+        <v>129.18</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2822" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2822" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2822" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2822">
+        <v>89.43000000000001</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2823" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2823" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2823" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2823">
+        <v>108.59</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2824" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2824" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2824" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2824">
+        <v>465.08</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2825" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2825" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2825" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2825">
+        <v>359.57</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2826" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2826" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2826">
+        <v>526.34</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2827" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2827" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2827">
+        <v>690.12</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2828" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2828" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2828" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2828">
+        <v>230.18</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2829" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2829" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2829" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2829">
+        <v>253.39</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2830" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2830" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2830" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2830">
+        <v>257.42</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2831" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2831" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2831">
+        <v>322.84</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2832" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2832" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2832" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2832">
+        <v>320.97</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2833" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2833" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2833" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="H2833">
+        <v>180.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2833"/>
+  <dimension ref="A1:H2849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -85263,6 +85263,486 @@
         <v>180.72</v>
       </c>
     </row>
+    <row r="2834">
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2834" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2834" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2834" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2834">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2835" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2835" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2835">
+        <v>105.74</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2836" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2836" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2836" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2836">
+        <v>170.48</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2837" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2837" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2837" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2837">
+        <v>133.16</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2838" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2838" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2838" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2838">
+        <v>90.73</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2839" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2839" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2839" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2839">
+        <v>122.7</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2840" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2840" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2840" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2840">
+        <v>451.14</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2841" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2841" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2841" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2841">
+        <v>368.36</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2842" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2842" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2842" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2842">
+        <v>541.11</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2843" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2843" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2843">
+        <v>640.48</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2844" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2844" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2844">
+        <v>235.28</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2845" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2845">
+        <v>263.92</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2846" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2846" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2846" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2846">
+        <v>259.22</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2847" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2847" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2847" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2847">
+        <v>332.36</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2848" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2848" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2848" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2848">
+        <v>333.41</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2849" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2849" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="H2849">
+        <v>185.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2849"/>
+  <dimension ref="A1:H2865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -85743,6 +85743,486 @@
         <v>185.24</v>
       </c>
     </row>
+    <row r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2850" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2850" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2850" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2850">
+        <v>260.49</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2851" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2851" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2851" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2851">
+        <v>105.92</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2852" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2852" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2852">
+        <v>173.07</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2853" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2853">
+        <v>137.43</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2854" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2854">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2855" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2855" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2855">
+        <v>128.66</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2856" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2856" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2856">
+        <v>453.79</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2857" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2857" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2857">
+        <v>387.39</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2858" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2858">
+        <v>537.58</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2859" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2859" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2859">
+        <v>624.91</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2860" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2860" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2860">
+        <v>236.59</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2861" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2861">
+        <v>264.03</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2862" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2862">
+        <v>271.35</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2863" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2863">
+        <v>328.01</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2864" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2864">
+        <v>348.78</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2865" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2865" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="H2865">
+        <v>187.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2865"/>
+  <dimension ref="A1:H2881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -86223,6 +86223,486 @@
         <v>187.32</v>
       </c>
     </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2866">
+        <v>276.68</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2867">
+        <v>106.37</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2868">
+        <v>173.57</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2869" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2869" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2869">
+        <v>135.65</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2870" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2870" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2870">
+        <v>88.48999999999999</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2871" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2871">
+        <v>127.36</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2872" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2872">
+        <v>494.46</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2873" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2873" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2873">
+        <v>429.33</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2874" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2874">
+        <v>545.9299999999999</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2875" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2875">
+        <v>672.12</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2876" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2876">
+        <v>253.03</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2877" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2877">
+        <v>273.15</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2878" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2878">
+        <v>296.84</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2879" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2879">
+        <v>381.36</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2880" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2880" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2880">
+        <v>350.67</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2881" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="H2881">
+        <v>196.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2881"/>
+  <dimension ref="A1:H2897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -86703,6 +86703,486 @@
         <v>196.51</v>
       </c>
     </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2882" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2882">
+        <v>261.1</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2883" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2883">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2884" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2884">
+        <v>182.76</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2885" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2885">
+        <v>120.91</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2886" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2886" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2886">
+        <v>90.20999999999999</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2887" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2887" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2887" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2887">
+        <v>138.75</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2888" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2888" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2888">
+        <v>471.83</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2889" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2889">
+        <v>413.27</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2890" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2890" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2890">
+        <v>554.4</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2891" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2891" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2891">
+        <v>671.96</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2892" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2892">
+        <v>231.31</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2893" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2893">
+        <v>255.77</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2894" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2894">
+        <v>295.07</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2895" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2895">
+        <v>350.2</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2896" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2896">
+        <v>345.05</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2897" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2897" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="H2897">
+        <v>177.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2897"/>
+  <dimension ref="A1:H2913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -87183,6 +87183,486 @@
         <v>177.51</v>
       </c>
     </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2898" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2898" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2898">
+        <v>284.19</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2899" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2899" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2899">
+        <v>102.19</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2900" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2900" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2900">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2901" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2901" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2901">
+        <v>115.87</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2902" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2902" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2902">
+        <v>74.81</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2903" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2903">
+        <v>89.17</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2904" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2904">
+        <v>527.4299999999999</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2905" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2905" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2905">
+        <v>470.56</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2906" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2906" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2906">
+        <v>598.58</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2907" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2907" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2907">
+        <v>759.9299999999999</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2908" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2908" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2908">
+        <v>234.46</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2909" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2909" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2909">
+        <v>275.04</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2910" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2910" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2910">
+        <v>313.18</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2911" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2911" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2911">
+        <v>402.51</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2912" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2912" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2912">
+        <v>387.77</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2913" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="H2913">
+        <v>193.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2913"/>
+  <dimension ref="A1:H2929"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -87663,6 +87663,486 @@
         <v>193.62</v>
       </c>
     </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2914" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2914">
+        <v>282.88</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2915" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2915">
+        <v>104.97</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2916" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2916">
+        <v>171.05</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2917" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2917" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2917">
+        <v>127.06</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2918" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2918" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2918">
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2919" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2919" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2919">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2920" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2920" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2920">
+        <v>516.21</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2921" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2921" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2921">
+        <v>455.48</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2922" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2922" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2922">
+        <v>629.28</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2923" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2923" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2923">
+        <v>780.55</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2924" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2924" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2924">
+        <v>242.41</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2925" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2925" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2925">
+        <v>283.16</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2926" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2926" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2926">
+        <v>312.42</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2927" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2927" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2927">
+        <v>370.47</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2928" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2928" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2928">
+        <v>378.2</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2929" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2929" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="H2929">
+        <v>189.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2929"/>
+  <dimension ref="A1:H2945"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -88143,6 +88143,486 @@
         <v>189.39</v>
       </c>
     </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2930" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2930" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2930">
+        <v>281.02</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2931" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2931" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2931">
+        <v>105.96</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2932" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2932" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2932">
+        <v>170.28</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2933" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2933" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2933">
+        <v>121.81</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2934" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2934" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2934">
+        <v>82.01000000000001</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2935" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2935" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2935">
+        <v>102.05</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2936" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2936" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2936">
+        <v>515.76</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2937" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2937" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2937">
+        <v>416.05</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2938" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2938" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2938">
+        <v>704.0599999999999</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2939" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2939" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2939">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2940" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2940" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2940">
+        <v>256.36</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2941" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2941" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2941">
+        <v>288.34</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2942" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2942" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2942">
+        <v>311.32</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2943" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2943" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2943">
+        <v>345.02</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2944" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2944" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2944">
+        <v>393.93</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2945" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2945" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="H2945">
+        <v>187.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2945"/>
+  <dimension ref="A1:H2961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -88623,6 +88623,486 @@
         <v>187.79</v>
       </c>
     </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2946" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2946" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2946">
+        <v>286.49</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2947" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2947" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2947">
+        <v>107.28</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2948" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2948" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2948">
+        <v>181.54</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2949" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2949" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2949">
+        <v>128.63</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2950" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2950" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2950">
+        <v>90.56999999999999</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2951" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2951" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2951">
+        <v>123.91</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2952" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2952" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2952">
+        <v>489.78</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2953" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2953" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2953">
+        <v>434.24</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2954" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2954" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2954">
+        <v>743.0700000000001</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2955" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2955" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2955">
+        <v>795.24</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2956" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2956" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2956">
+        <v>261.84</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2957" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2957" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2957">
+        <v>302.89</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2958" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2958" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2958">
+        <v>302.61</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2959" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2959" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2959">
+        <v>356.51</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2960" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2960" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2960">
+        <v>410.64</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2961" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2961" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="H2961">
+        <v>187.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2961"/>
+  <dimension ref="A1:H2977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89103,6 +89103,486 @@
         <v>187.41</v>
       </c>
     </row>
+    <row r="2962">
+      <c r="A2962" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2962" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2962" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2962">
+        <v>280.97</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2963" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2963" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2963">
+        <v>107.3</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2964" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2964" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2964">
+        <v>179.26</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2965" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2965" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2965">
+        <v>129.37</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2966" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2966" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2966">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2967" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2967" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2967">
+        <v>128.85</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2968" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2968" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2968">
+        <v>491.86</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2969" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2969" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2969">
+        <v>433.25</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2970" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2970" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2970">
+        <v>726.73</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2971" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2971" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2971">
+        <v>698.64</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2972" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2972" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2972">
+        <v>254.94</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2973" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2973" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2973">
+        <v>289.48</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2974" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2974" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2974">
+        <v>297.64</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2975" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2975" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2975">
+        <v>354.63</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2976" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2976" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2976">
+        <v>404.66</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2977" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2977" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="H2977">
+        <v>184.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2977"/>
+  <dimension ref="A1:H2993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89583,6 +89583,486 @@
         <v>184.65</v>
       </c>
     </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2978" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2978" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2978">
+        <v>297.32</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2979" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2979" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2979" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2979">
+        <v>113.74</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2980" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2980" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2980">
+        <v>179.96</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2981" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2981" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2981">
+        <v>127.53</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2982" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2982" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2982">
+        <v>91.56999999999999</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2983" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2983" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2983">
+        <v>129.8</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2984" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2984" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2984">
+        <v>540.95</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2985" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2985" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2985">
+        <v>476.11</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2986" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2986" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2986">
+        <v>720.88</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2987" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2987" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2987">
+        <v>799.5700000000001</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2988" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2988" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2988">
+        <v>252.6</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2989" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2989" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2989">
+        <v>303.73</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2990" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2990" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2990">
+        <v>338.51</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2991" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2991" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2991">
+        <v>399.58</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2992" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2992" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2992">
+        <v>401.42</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2993" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2993" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="H2993">
+        <v>194.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2993"/>
+  <dimension ref="A1:H3009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -90063,6 +90063,486 @@
         <v>194.04</v>
       </c>
     </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D2994" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2994" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H2994">
+        <v>272.18</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D2995" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2995" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H2995">
+        <v>107.75</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C2996" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D2996" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G2996" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H2996">
+        <v>176.64</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F2997" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2997" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H2997">
+        <v>117.92</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F2998" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2998" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H2998">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F2999" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G2999" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H2999">
+        <v>124.67</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3000" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3000" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3000">
+        <v>521.78</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3001" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3001" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3001">
+        <v>431.01</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3002" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3002" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3002">
+        <v>629.78</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3003" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3003">
+        <v>645.24</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3004" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3004" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3004">
+        <v>241.69</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3005" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3005" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3005">
+        <v>257.55</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3006" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3006" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3006">
+        <v>300.65</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3007" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3007" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3007">
+        <v>378.97</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3008" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3008" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3008">
+        <v>374.55</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3009" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3009" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="H3009">
+        <v>180.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3009"/>
+  <dimension ref="A1:H3025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -90543,6 +90543,486 @@
         <v>180.36</v>
       </c>
     </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3010" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3010">
+        <v>289.47</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3011" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3011" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3011">
+        <v>105.18</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3012" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3012" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3012">
+        <v>138.87</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3013" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3013" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3013" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3013">
+        <v>113.54</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3014" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3014" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3014" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3014">
+        <v>77.29000000000001</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3015" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3015" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3015" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3015">
+        <v>82.13</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3016" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3016" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3016">
+        <v>533.74</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3017" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3017" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3017">
+        <v>482.23</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3018" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3018" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3018">
+        <v>682.5599999999999</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3019" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3019" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3019">
+        <v>683.11</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3020" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3020" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3020">
+        <v>249.92</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3021" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3021" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3021">
+        <v>295.26</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3022" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3022" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3022">
+        <v>295.67</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3023" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3023">
+        <v>408.98</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3024" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3024" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3024">
+        <v>406.9</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3025" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3025" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="H3025">
+        <v>198.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3025"/>
+  <dimension ref="A1:H3041"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -91023,6 +91023,486 @@
         <v>198.65</v>
       </c>
     </row>
+    <row r="3026">
+      <c r="A3026" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3026" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3026" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3026">
+        <v>294.57</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3027" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3027" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3027">
+        <v>111.89</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3028" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3028" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3028">
+        <v>176.52</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3029" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3029" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3029">
+        <v>129.77</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3030" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3030" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3030">
+        <v>86.01000000000001</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3031" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3031" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3031">
+        <v>114.94</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3032" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3032" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3032">
+        <v>512.83</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3033" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3033" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3033">
+        <v>485.83</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3034" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3034" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3034">
+        <v>665.08</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3035" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3035" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3035">
+        <v>740.46</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3036" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3036" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3036">
+        <v>251.08</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3037" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3037" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3037">
+        <v>306.32</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3038" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3038" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3038">
+        <v>311.54</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3039" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3039" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3039">
+        <v>398.8</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3040" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3040" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3040">
+        <v>405.76</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3041" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3041" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="H3041">
+        <v>200.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3041"/>
+  <dimension ref="A1:H3057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -91503,6 +91503,486 @@
         <v>200.32</v>
       </c>
     </row>
+    <row r="3042">
+      <c r="A3042" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3042" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3042" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3042">
+        <v>279.91</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3043" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3043" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3043">
+        <v>109.36</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3044" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3044" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3044">
+        <v>179.38</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3045" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3045">
+        <v>121.85</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3046" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3046">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3047" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3047" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3047">
+        <v>121.56</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3048" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3048" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3048">
+        <v>496.66</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3049" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3049" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3049">
+        <v>452.58</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3050" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3050" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3050">
+        <v>647.13</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3051" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3051" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3051">
+        <v>724.77</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3052" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3052" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3052">
+        <v>258.72</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3053" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3053" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3053">
+        <v>298.13</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3054" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3054" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3054">
+        <v>291.2</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3055" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3055" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3055">
+        <v>355.79</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3056" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3056" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3056">
+        <v>405.94</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3057" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3057" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="H3057">
+        <v>184.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3057"/>
+  <dimension ref="A1:H3073"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -91983,6 +91983,486 @@
         <v>184.59</v>
       </c>
     </row>
+    <row r="3058">
+      <c r="A3058" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3058" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3058" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3058">
+        <v>277.55</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3059" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3059" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3059">
+        <v>105.04</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3060" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3060" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3060">
+        <v>179.91</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3061" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3061" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3061">
+        <v>125.61</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3062" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3062" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3062">
+        <v>82.77</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3063" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3063" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3063">
+        <v>124.22</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3064" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3064" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3064">
+        <v>482.34</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3065" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3065" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3065">
+        <v>433.54</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3066" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3066" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3066">
+        <v>655.62</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3067" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3067" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3067">
+        <v>677.83</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3068" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3068" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3068">
+        <v>251.78</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3069" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3069" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3069">
+        <v>285.08</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3070" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3070" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3070">
+        <v>287.66</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3071" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3071" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3071">
+        <v>350.48</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3072" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3072" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3072">
+        <v>404.9</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3073" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3073" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="H3073">
+        <v>190.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3073"/>
+  <dimension ref="A1:H3089"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -92463,6 +92463,486 @@
         <v>190.04</v>
       </c>
     </row>
+    <row r="3074">
+      <c r="A3074" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3074" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3074" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3074">
+        <v>279.42</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3075" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3075" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3075">
+        <v>107.53</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3076" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3076" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3076">
+        <v>179.21</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3077" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3077" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3077">
+        <v>126.55</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3078" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3078" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3078">
+        <v>89.12</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3079" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3079" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3079">
+        <v>127.99</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3080" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3080" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3080">
+        <v>499.28</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3081" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3081" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3081">
+        <v>443.64</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3082" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3082" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3082">
+        <v>689.36</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3083" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3083" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3083" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3083">
+        <v>665.37</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3084" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3084" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3084" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3084">
+        <v>252.94</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3085" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3085" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3085" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3085">
+        <v>298.8</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3086" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3086" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3086" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3086">
+        <v>296.88</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3087" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3087" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3087" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3087">
+        <v>340.7</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3088" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3088" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3088" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3088">
+        <v>411.21</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3089" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3089" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3089" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="H3089">
+        <v>184.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3089"/>
+  <dimension ref="A1:H3105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -92943,6 +92943,486 @@
         <v>184.71</v>
       </c>
     </row>
+    <row r="3090">
+      <c r="A3090" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3090" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3090" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3090" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3090">
+        <v>281.46</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3091" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3091" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3091" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3091">
+        <v>105.01</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3092" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3092" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3092" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3092">
+        <v>185.06</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3093" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3093" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3093" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3093">
+        <v>127.71</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3094" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3094" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3094" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3094" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3094">
+        <v>89.09</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3095" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3095" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3095" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3095" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3095">
+        <v>136.86</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3096" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3096" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3096">
+        <v>490.79</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3097" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3097" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3097">
+        <v>466.91</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3098" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3098" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3098">
+        <v>686.52</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3099" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3099" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3099">
+        <v>592.86</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3100" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3100" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3100">
+        <v>254.16</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3101" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3101" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3101">
+        <v>302.41</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3102" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3102" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3102">
+        <v>291.65</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3103" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3103" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3103">
+        <v>361.75</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3104" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3104" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3104">
+        <v>402.32</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3105" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3105" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="H3105">
+        <v>190.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3105"/>
+  <dimension ref="A1:H3121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -93423,6 +93423,486 @@
         <v>190.67</v>
       </c>
     </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3106" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3106" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3106">
+        <v>250.8</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3107" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3107" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3107">
+        <v>101.44</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3108" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3108" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3108">
+        <v>182.43</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3109" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3109" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3109">
+        <v>120.56</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3110" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3110" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3110">
+        <v>89.98</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3111" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3111" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3111">
+        <v>141.11</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3112" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3112" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3112" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3112">
+        <v>433.38</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3113" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3113" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3113" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3113">
+        <v>400.59</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3114" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3114" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3114" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3114">
+        <v>576.76</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3115" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3115" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3115" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3115">
+        <v>585.0599999999999</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3116" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3116" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3116" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3116">
+        <v>225.13</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3117" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3117" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3117" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3117">
+        <v>277.35</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3118" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3118" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3118" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3118">
+        <v>260.02</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3119" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3119" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3119" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3119">
+        <v>321.19</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3120" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3120" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3120" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3120">
+        <v>350.41</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3121" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3121" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3121" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="H3121">
+        <v>170.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3121"/>
+  <dimension ref="A1:H3137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -93903,6 +93903,486 @@
         <v>170.82</v>
       </c>
     </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3122" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3122" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3122" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3122">
+        <v>267.55</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3123" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3123" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3123" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3123">
+        <v>100.48</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3124" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3124" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3124" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3124">
+        <v>121.81</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3125" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3125" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3125" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3125">
+        <v>107.52</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3126" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3126" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3126" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3126">
+        <v>75.48</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3127" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3127" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3127" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3127">
+        <v>73.47</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3128" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3128" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3128" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3128">
+        <v>486.8</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3129" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3129" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3129" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3129">
+        <v>458.12</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3130" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3130" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3130" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3130">
+        <v>610.5599999999999</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3131" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3131" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3131" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3131">
+        <v>615.59</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3132" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3132" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3132" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3132">
+        <v>229.08</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3133" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3133" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3133" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3133">
+        <v>295.26</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3134" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3134" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3134" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3134">
+        <v>277.9</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3135" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3135" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3135" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3135">
+        <v>354.98</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3136" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3136" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3136" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3136">
+        <v>376.71</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3137" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3137" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3137" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="H3137">
+        <v>186.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3137"/>
+  <dimension ref="A1:H3153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94383,6 +94383,486 @@
         <v>186.37</v>
       </c>
     </row>
+    <row r="3138">
+      <c r="A3138" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3138" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3138" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3138" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3138">
+        <v>253.17</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3139" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3139" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3139" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3139">
+        <v>109.82</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3140" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3140" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3140" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3140">
+        <v>163.23</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3141" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3141" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3141" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3141">
+        <v>126.44</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3142" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3142" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3142" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3142">
+        <v>86.76000000000001</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3143" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3143" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3143" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3143">
+        <v>113.06</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3144" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3144" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3144" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3144">
+        <v>406.58</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3145" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3145" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3145" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3145">
+        <v>384.2</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3146" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3146" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3146" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3146" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3146">
+        <v>613.22</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3147" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3147" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3147" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3147" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3147">
+        <v>692.77</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3148" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3148" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3148" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3148" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3148">
+        <v>219.15</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3149" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3149" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3149" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3149" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3149">
+        <v>289.75</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3150" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3150" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3150" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3150" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3150">
+        <v>282.3</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3151" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3151" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3151" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3151" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3151">
+        <v>286.65</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3152" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3152" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3152">
+        <v>332.79</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3153" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3153" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3153" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="H3153">
+        <v>180.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3153"/>
+  <dimension ref="A1:H3169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94863,6 +94863,486 @@
         <v>180.27</v>
       </c>
     </row>
+    <row r="3154">
+      <c r="A3154" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3154" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3154" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3154" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3154">
+        <v>247.84</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3155" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3155" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3155" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3155">
+        <v>103.87</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3156" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3156" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3156" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3156" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3156">
+        <v>155.8</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3157" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3157" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3157" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3157" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3157">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3158" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3158" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3158" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3158" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3158">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3159" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3159" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3159" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3159" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3159">
+        <v>104.26</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3160" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3160" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3160" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3160" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3160">
+        <v>408.2</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3161" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3161" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3161" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3161" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3161">
+        <v>369.35</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3162" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3162" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3162" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3162" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3162">
+        <v>611.67</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3163" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3163" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3163" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3163" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3163">
+        <v>628.97</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3164" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3164" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3164" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3164" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3164">
+        <v>221.51</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3165" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3165" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3165" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3165" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3165">
+        <v>303.63</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3166" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3166" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3166" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3166" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3166">
+        <v>264.38</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3167" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3167" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3167" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3167" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3167">
+        <v>278.92</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3168" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3168" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3168" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3168" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3168">
+        <v>323.08</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3169" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3169" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3169" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3169" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="H3169">
+        <v>177.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3169"/>
+  <dimension ref="A1:H3185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95343,6 +95343,486 @@
         <v>177.71</v>
       </c>
     </row>
+    <row r="3170">
+      <c r="A3170" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3170" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3170" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3170" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3170" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3170">
+        <v>252.83</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3171" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3171" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3171" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3171" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3171">
+        <v>104.63</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3172" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3172" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3172" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3172" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3172">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3173" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3173" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3173" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3173">
+        <v>133.76</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3174" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3174" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3174" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3174">
+        <v>89.59999999999999</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3175" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3175" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3175" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3175">
+        <v>117.42</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3176" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3176" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3176" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3176">
+        <v>410.99</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3177" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3177" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3177" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3177">
+        <v>387.88</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3178" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3178" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3178" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3178">
+        <v>567.23</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3179" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3179" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3179" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3179">
+        <v>646.8</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3180" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3180" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3180" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3180">
+        <v>209.77</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3181" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3181" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3181" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3181">
+        <v>303.42</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3182" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3182" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3182" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3182">
+        <v>266.54</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3183" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3183" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3183" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3183">
+        <v>304.23</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3184" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3184" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3184" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3184">
+        <v>317.19</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3185" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3185" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3185" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="H3185">
+        <v>185.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3185"/>
+  <dimension ref="A1:H3201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95823,6 +95823,486 @@
         <v>185.08</v>
       </c>
     </row>
+    <row r="3186">
+      <c r="A3186" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3186" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3186" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3186" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3186">
+        <v>249.56</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3187" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3187" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3187" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3187">
+        <v>105.82</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3188" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3188" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3188" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3188">
+        <v>172.21</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3189" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3189" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3189" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3189">
+        <v>137.14</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3190" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3190" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3190" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3190">
+        <v>94.41</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3191" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3191" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3191" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3191">
+        <v>135.32</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3192" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3192" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3192" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3192" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3192">
+        <v>404.23</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3193" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3193" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3193" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3193" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3193">
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3194" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3194" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3194" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3194" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3194">
+        <v>543.6</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3195" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3195" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3195" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3195" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3195">
+        <v>610.22</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3196" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3196" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3196" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3196" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3196">
+        <v>216.7</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3197" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3197" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3197" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3197" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3197">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3198" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3198" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3198" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3198" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3198">
+        <v>266.77</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3199" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3199" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3199" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3199" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3199">
+        <v>299.23</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3200" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3200" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3200" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3200" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3200">
+        <v>320.99</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3201" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3201" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3201" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3201" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="H3201">
+        <v>178.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3201"/>
+  <dimension ref="A1:H3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96303,6 +96303,486 @@
         <v>178.17</v>
       </c>
     </row>
+    <row r="3202">
+      <c r="A3202" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3202" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3202" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3202" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3202" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3202">
+        <v>242.79</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3203" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3203" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3203" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3203" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3203">
+        <v>106.08</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3204" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3204" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3204" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3204" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3204">
+        <v>173.85</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3205" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3205" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3205" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3205">
+        <v>135.71</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3206" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3206" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3206" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3206">
+        <v>98.28</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3207" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3207" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3207" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3207">
+        <v>140.59</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3208" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3208" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3208" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3208">
+        <v>369.6</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3209" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3209" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3209" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3209">
+        <v>380.87</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3210" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3210" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3210" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3210">
+        <v>472.33</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3211" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3211" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3211" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3211">
+        <v>594.36</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3212" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3212" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3212" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3212">
+        <v>194.18</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3213" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3213" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3213" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3213" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3213">
+        <v>259.87</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3214" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3214" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3214" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3214" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3214">
+        <v>282.89</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3215" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3215" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3215" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3215" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3215">
+        <v>292.04</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3216" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3216" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3216" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3216" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3216">
+        <v>308.62</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3217" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3217" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3217" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3217" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="H3217">
+        <v>179.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3217"/>
+  <dimension ref="A1:H3233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96783,6 +96783,486 @@
         <v>179.77</v>
       </c>
     </row>
+    <row r="3218">
+      <c r="A3218" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3218" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3218" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3218" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3218" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3218">
+        <v>224.6</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3219" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3219" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3219" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3219" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3219">
+        <v>107.37</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3220" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3220" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3220" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3220">
+        <v>175.58</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3221" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3221" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3221" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3221">
+        <v>133.56</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3222" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3222" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3222" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3222">
+        <v>103.43</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3223" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3223" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3223" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3223">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3224" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3224" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3224" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3224">
+        <v>357.42</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3225" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3225" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3225" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3225">
+        <v>327.44</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3226" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3226" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3226" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3226">
+        <v>417.61</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3227" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3227" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3227" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3227">
+        <v>496.76</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3228" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3228" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3228" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3228">
+        <v>185.31</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3229" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3229" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3229" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3229" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3229">
+        <v>249.57</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3230" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3230" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3230" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3230" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3230">
+        <v>245.43</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3231" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3231" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3231" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3231" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3231">
+        <v>276.32</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3232" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3232" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3232" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3232" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3232">
+        <v>294.03</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3233" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3233" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3233" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3233" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="H3233">
+        <v>168.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3233"/>
+  <dimension ref="A1:H3249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97263,6 +97263,486 @@
         <v>168.61</v>
       </c>
     </row>
+    <row r="3234">
+      <c r="A3234" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3234" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3234" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3234" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3234" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3234">
+        <v>237.46</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3235" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3235" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3235" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3235" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3235">
+        <v>106.05</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3236" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3236" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3236" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3236" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3236">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3237" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3237" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3237" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3237" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3237">
+        <v>127.08</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3238" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3238" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3238" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3238" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3238">
+        <v>89.93000000000001</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3239" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3239" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3239" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3239" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3239">
+        <v>93.84999999999999</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3240" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3240" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3240" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3240" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3240">
+        <v>380.66</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3241" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3241" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3241" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3241" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3241">
+        <v>369.98</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3242" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3242" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3242" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3242" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3242">
+        <v>432.23</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3243" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3243" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3243" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3243" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3243">
+        <v>504.51</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3244" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3244" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3244" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3244" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3244">
+        <v>191.88</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3245" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3245" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3245" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3245" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3245">
+        <v>232.41</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3246" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3246" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3246" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3246" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3246">
+        <v>253.18</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3247" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3247" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3247" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3247" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3247">
+        <v>327.47</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3248" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3248" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3248" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3248" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3248">
+        <v>302.01</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3249" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3249" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3249" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3249" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="H3249">
+        <v>185.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3249"/>
+  <dimension ref="A1:H3265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97743,6 +97743,486 @@
         <v>185.34</v>
       </c>
     </row>
+    <row r="3250">
+      <c r="A3250" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3250" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3250" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3250" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3250" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3250">
+        <v>233.07</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3251" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3251" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3251" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3251" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3251">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3252" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3252" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3252" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3252">
+        <v>175.19</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3253" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3253" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3253" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3253">
+        <v>152.88</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3254" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3254" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3254" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3254" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3254">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3255" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3255" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3255" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3255" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3255">
+        <v>140.66</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3256" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3256" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3256" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3256" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3256">
+        <v>348.54</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3257" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3257" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3257" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3257" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3257">
+        <v>326.68</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3258" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3258" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3258" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3258" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3258">
+        <v>412.9</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3259" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3259" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3259" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3259" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3259">
+        <v>546.99</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3260" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3260" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3260" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3260" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3260">
+        <v>208.19</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3261" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3261" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3261" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3261">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3262" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3262" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3262" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3262">
+        <v>272.68</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3263" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3263" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3263" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3263">
+        <v>258.94</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3264" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3264" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3264" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3264">
+        <v>283.65</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3265" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3265" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3265" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="H3265">
+        <v>175.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3265"/>
+  <dimension ref="A1:H3281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98223,6 +98223,486 @@
         <v>175.53</v>
       </c>
     </row>
+    <row r="3266">
+      <c r="A3266" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3266" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3266" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3266">
+        <v>224.93</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3267" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3267" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3267">
+        <v>119.22</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3268" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3268" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3268">
+        <v>176.16</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3269" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3269" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3269">
+        <v>165.31</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3270" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3270" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3270">
+        <v>109.39</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3271" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3271" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3271">
+        <v>146.55</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3272" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3272" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3272">
+        <v>312.94</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3273" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3273" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3273">
+        <v>293.76</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3274" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3274" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3274">
+        <v>392.99</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3275" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3275" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3275">
+        <v>546.99</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3276" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3276" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3276">
+        <v>199.42</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3277" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3277" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3277" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3277">
+        <v>257.92</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3278" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3278" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3278" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3278">
+        <v>253.66</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3279" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3279" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3279" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3279">
+        <v>241.95</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3280" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3280" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3280" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3280">
+        <v>277.13</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3281" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3281" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3281" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="H3281">
+        <v>167.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3281"/>
+  <dimension ref="A1:H3297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98703,6 +98703,486 @@
         <v>167.71</v>
       </c>
     </row>
+    <row r="3282">
+      <c r="A3282" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3282" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3282" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3282" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3282">
+        <v>235.74</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3283" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3283" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3283" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3283">
+        <v>118.23</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3284" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3284" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3284" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3284">
+        <v>164.75</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3285" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3285" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3285" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3285">
+        <v>164.47</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3286" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3286" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3286" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3286">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3287" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3287" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3287" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3287">
+        <v>130.42</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3288" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3288" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3288" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3288">
+        <v>345.52</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3289" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3289" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3289" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3289">
+        <v>322.46</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3290" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3290" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3290" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3290">
+        <v>442.94</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3291" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3291" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3291" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3291">
+        <v>500.41</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3292" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3292" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3292" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3292">
+        <v>222.44</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3293" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3293" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3293" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3293">
+        <v>255.58</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3294" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3294" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3294" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3294">
+        <v>264.97</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3295" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3295" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3295" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3295">
+        <v>247.91</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3296" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3296" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3296" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3296">
+        <v>289.66</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3297" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3297" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3297" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="H3297">
+        <v>179.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3297"/>
+  <dimension ref="A1:H3313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99183,6 +99183,486 @@
         <v>179.33</v>
       </c>
     </row>
+    <row r="3298">
+      <c r="A3298" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3298" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3298" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3298" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3298">
+        <v>234.39</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3299" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3299" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3299" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3299">
+        <v>125.19</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3300" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3300" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3300" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3300">
+        <v>190.36</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3301" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3301" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3301" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3301">
+        <v>160.49</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3302" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3302" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3302" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3302">
+        <v>120.32</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3303" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3303" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3303" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3303">
+        <v>161.03</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3304" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3304" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3304" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3304">
+        <v>310.75</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3305" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3305" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3305" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3305">
+        <v>316.7</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3306" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3306" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3306" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3306">
+        <v>436.66</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3307" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3307" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3307" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3307">
+        <v>496.6</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3308" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3308" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3308" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3308">
+        <v>210.97</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3309" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3309" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3309" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3309">
+        <v>239.44</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3310" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3310" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3310" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3310">
+        <v>291.96</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3311" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3311" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3311" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3311">
+        <v>248.78</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3312" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3312" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3312" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3312" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3312">
+        <v>309.36</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3313" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3313" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3313" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3313" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="H3313">
+        <v>177.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3313"/>
+  <dimension ref="A1:H3329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99663,6 +99663,486 @@
         <v>177.11</v>
       </c>
     </row>
+    <row r="3314">
+      <c r="A3314" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3314" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3314" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3314" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3314" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3314">
+        <v>240.17</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3315" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3315" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3315" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3315" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3315">
+        <v>134.19</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3316" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3316" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3316" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3316" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3316">
+        <v>207.83</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3317" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3317" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3317" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3317" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3317">
+        <v>167.37</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3318" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3318" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3318" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3318" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3318">
+        <v>127.19</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3319" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3319" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3319" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3319" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3319">
+        <v>177.83</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3320" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3320" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3320" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3320" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3320">
+        <v>337.18</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3321" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3321" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3321" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3321" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3321">
+        <v>342.47</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3322" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3322" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3322" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3322" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3322">
+        <v>384.45</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3323" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3323" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3323" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3323" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3323">
+        <v>430.28</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3324" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3324" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3324" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3324" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3324">
+        <v>216.28</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3325" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3325" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3325" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3325" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3325">
+        <v>232.27</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3326" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3326" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3326" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3326" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3326">
+        <v>292.83</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3327" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3327" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3327" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3327" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3327">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3328" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3328" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3328" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3328" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3328">
+        <v>320.41</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3329" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3329" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3329" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3329" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="H3329">
+        <v>182.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3329"/>
+  <dimension ref="A1:H3345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100143,6 +100143,486 @@
         <v>182.1</v>
       </c>
     </row>
+    <row r="3330">
+      <c r="A3330" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3330" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3330" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3330" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3330" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3330">
+        <v>208.15</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3331" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3331" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3331" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3331" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3331">
+        <v>131.16</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3332" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3332" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3332" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3332" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3332">
+        <v>207.35</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3333" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3333" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3333" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3333" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3333">
+        <v>140.97</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3334" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3334" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3334" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3334" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3334">
+        <v>130.99</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3335" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3335" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3335" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3335" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3335">
+        <v>174.81</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3336" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3336" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3336" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3336" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3336">
+        <v>307.33</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3337" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3337" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3337" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3337" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3337">
+        <v>280.55</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3338" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3338" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3338" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3338" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3338">
+        <v>354.14</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3339" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3339" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3339" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3339" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3339">
+        <v>388.01</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3340" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3340" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3340" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3340" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3340">
+        <v>189.58</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3341" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3341" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3341" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3341" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3341">
+        <v>212.59</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3342" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3342" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3342" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3342" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3342">
+        <v>263.05</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3343" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3343" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3343" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3343" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3343">
+        <v>226.75</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3344" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3344" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3344" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3344" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3344">
+        <v>290.86</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3345" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3345" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3345" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3345" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="H3345">
+        <v>152.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3345"/>
+  <dimension ref="A1:H3361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100623,6 +100623,486 @@
         <v>152.34</v>
       </c>
     </row>
+    <row r="3346">
+      <c r="A3346" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3346" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3346" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3346" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3346" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3346">
+        <v>222.77</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3347" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3347" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3347" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3347" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3347">
+        <v>137.11</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3348" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3348" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3348" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3348" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3348">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3349" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3349" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3349" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3349" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3349">
+        <v>143.3</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3350" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3350" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3350" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3350" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3350">
+        <v>123.74</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3351" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3351" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3351" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3351" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3351">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3352" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3352" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3352" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3352" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3352">
+        <v>318.86</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3353" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3353" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3353" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3353" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3353">
+        <v>295.77</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3354" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3354" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3354" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3354" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3354">
+        <v>351.02</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3355" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3355" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3355" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3355" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3355">
+        <v>393.9</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3356" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3356" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3356" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3356" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3356">
+        <v>205.05</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3357" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3357" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3357" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3357" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3357">
+        <v>211.22</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3358" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3358" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3358" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3358" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3358">
+        <v>249.21</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3359" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3359" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3359" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3359" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3359">
+        <v>266.65</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3360" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3360" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3360" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3360" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3360">
+        <v>305.84</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3361" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3361" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3361" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3361" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="H3361">
+        <v>181.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3361"/>
+  <dimension ref="A1:H3377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101103,6 +101103,486 @@
         <v>181.78</v>
       </c>
     </row>
+    <row r="3362">
+      <c r="A3362" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3362" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3362" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3362" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3362" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3362">
+        <v>210.61</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3363" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3363" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3363" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3363" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3363">
+        <v>163.76</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3364" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3364" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3364" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3364" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3364">
+        <v>247.9</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3365" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3365" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3365" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3365" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3365">
+        <v>171.32</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3366" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3366" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3366" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3366" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3366">
+        <v>156.12</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3367" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3367" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3367" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3367" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3367">
+        <v>197.04</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3368" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3368" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3368" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3368" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3368">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3369" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3369" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3369" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3369" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3369">
+        <v>241.54</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3370" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3370" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3370" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3370" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3370">
+        <v>340.87</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3371" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3371" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3371" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3371" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3371">
+        <v>358.77</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3372" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3372" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3372" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3372" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3372">
+        <v>206.34</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3373" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3373" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3373" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3373" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3373">
+        <v>219.9</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3374" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3374" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3374" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3374" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3374">
+        <v>252.33</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3375" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3375" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3375" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3375" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3375">
+        <v>206.9</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3376" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3376" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3376" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3376" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3376">
+        <v>279.48</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3377" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3377" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3377" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3377" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3377">
+        <v>163.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3377"/>
+  <dimension ref="A1:H3361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101103,486 +101103,6 @@
         <v>181.78</v>
       </c>
     </row>
-    <row r="3362">
-      <c r="A3362" t="inlineStr">
-        <is>
-          <t>country/region</t>
-        </is>
-      </c>
-      <c r="B3362" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="C3362" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="D3362" t="inlineStr">
-        <is>
-          <t>Norge</t>
-        </is>
-      </c>
-      <c r="G3362" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3362">
-        <v>210.61</v>
-      </c>
-    </row>
-    <row r="3363">
-      <c r="A3363" t="inlineStr">
-        <is>
-          <t>country/region</t>
-        </is>
-      </c>
-      <c r="B3363" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="C3363" t="inlineStr">
-        <is>
-          <t>transit</t>
-        </is>
-      </c>
-      <c r="D3363" t="inlineStr">
-        <is>
-          <t>Norge</t>
-        </is>
-      </c>
-      <c r="G3363" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3363">
-        <v>163.76</v>
-      </c>
-    </row>
-    <row r="3364">
-      <c r="A3364" t="inlineStr">
-        <is>
-          <t>country/region</t>
-        </is>
-      </c>
-      <c r="B3364" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="C3364" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="D3364" t="inlineStr">
-        <is>
-          <t>Norge</t>
-        </is>
-      </c>
-      <c r="G3364" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3364">
-        <v>247.9</v>
-      </c>
-    </row>
-    <row r="3365">
-      <c r="A3365" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="B3365" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
-      </c>
-      <c r="C3365" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3365" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3365" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3365">
-        <v>171.32</v>
-      </c>
-    </row>
-    <row r="3366">
-      <c r="A3366" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="B3366" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
-      </c>
-      <c r="C3366" t="inlineStr">
-        <is>
-          <t>transit</t>
-        </is>
-      </c>
-      <c r="F3366" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3366" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3366">
-        <v>156.12</v>
-      </c>
-    </row>
-    <row r="3367">
-      <c r="A3367" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="B3367" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
-      </c>
-      <c r="C3367" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="F3367" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3367" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3367">
-        <v>197.04</v>
-      </c>
-    </row>
-    <row r="3368">
-      <c r="A3368" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3368" t="inlineStr">
-        <is>
-          <t>Agder</t>
-        </is>
-      </c>
-      <c r="C3368" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3368" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3368" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3368">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="3369">
-      <c r="A3369" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3369" t="inlineStr">
-        <is>
-          <t>Innlandet</t>
-        </is>
-      </c>
-      <c r="C3369" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3369" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3369" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3369">
-        <v>241.54</v>
-      </c>
-    </row>
-    <row r="3370">
-      <c r="A3370" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3370" t="inlineStr">
-        <is>
-          <t>Møre og Romsdal</t>
-        </is>
-      </c>
-      <c r="C3370" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3370" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3370" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3370">
-        <v>340.87</v>
-      </c>
-    </row>
-    <row r="3371">
-      <c r="A3371" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3371" t="inlineStr">
-        <is>
-          <t>Nordland</t>
-        </is>
-      </c>
-      <c r="C3371" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3371" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3371" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3371">
-        <v>358.77</v>
-      </c>
-    </row>
-    <row r="3372">
-      <c r="A3372" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3372" t="inlineStr">
-        <is>
-          <t>Rogaland</t>
-        </is>
-      </c>
-      <c r="C3372" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3372" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3372" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3372">
-        <v>206.34</v>
-      </c>
-    </row>
-    <row r="3373">
-      <c r="A3373" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3373" t="inlineStr">
-        <is>
-          <t>Troms og Finnmark</t>
-        </is>
-      </c>
-      <c r="C3373" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3373" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3373" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3373">
-        <v>219.9</v>
-      </c>
-    </row>
-    <row r="3374">
-      <c r="A3374" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3374" t="inlineStr">
-        <is>
-          <t>Trøndelag</t>
-        </is>
-      </c>
-      <c r="C3374" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3374" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3374" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3374">
-        <v>252.33</v>
-      </c>
-    </row>
-    <row r="3375">
-      <c r="A3375" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3375" t="inlineStr">
-        <is>
-          <t>Vestfold og Telemark</t>
-        </is>
-      </c>
-      <c r="C3375" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3375" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3375" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3375">
-        <v>206.9</v>
-      </c>
-    </row>
-    <row r="3376">
-      <c r="A3376" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3376" t="inlineStr">
-        <is>
-          <t>Vestland</t>
-        </is>
-      </c>
-      <c r="C3376" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3376" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3376" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3376">
-        <v>279.48</v>
-      </c>
-    </row>
-    <row r="3377">
-      <c r="A3377" t="inlineStr">
-        <is>
-          <t>sub-region</t>
-        </is>
-      </c>
-      <c r="B3377" t="inlineStr">
-        <is>
-          <t>Viken</t>
-        </is>
-      </c>
-      <c r="C3377" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="F3377" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="G3377" t="inlineStr">
-        <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H3377">
-        <v>163.32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3361"/>
+  <dimension ref="A1:H3393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101103,6 +101103,966 @@
         <v>181.78</v>
       </c>
     </row>
+    <row r="3362">
+      <c r="A3362" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3362" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3362" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3362" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3362" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3362">
+        <v>210.61</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3363" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3363" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3363" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3363" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3363">
+        <v>163.76</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3364" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3364" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3364" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3364" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3364">
+        <v>247.9</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3365" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3365" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3365" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3365" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3365">
+        <v>171.32</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3366" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3366" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3366" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3366" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3366">
+        <v>156.12</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3367" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3367" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3367" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3367" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3367">
+        <v>197.04</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3368" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3368" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3368" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3368" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3368">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3369" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3369" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3369" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3369" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3369">
+        <v>241.54</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3370" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3370" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3370" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3370" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3370">
+        <v>340.87</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3371" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3371" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3371" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3371" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3371">
+        <v>358.77</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3372" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3372" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3372" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3372" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3372">
+        <v>206.34</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3373" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3373" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3373" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3373" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3373">
+        <v>219.9</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3374" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3374" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3374" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3374" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3374">
+        <v>252.33</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3375" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3375" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3375" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3375" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3375">
+        <v>206.9</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3376" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3376" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3376" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3376" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3376">
+        <v>279.48</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3377" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3377" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3377" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3377" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="H3377">
+        <v>163.32</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3378" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3378" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3378" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3378" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3378">
+        <v>206.13</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3379" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3379" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3379" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3379" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3379">
+        <v>166.84</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3380" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3380" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3380" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3380" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3380">
+        <v>237.54</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3381" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3381" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3381" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3381" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3381">
+        <v>175.85</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3382" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3382" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3382" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3382" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3382">
+        <v>169.78</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3383" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3383" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3383" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3383" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3383">
+        <v>201.8</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3384" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3384" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3384" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3384" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3384">
+        <v>262.63</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3385" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3385" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3385" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3385" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3385">
+        <v>245.36</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3386" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3386" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3386" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3386" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3386">
+        <v>352.42</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3387" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3387" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3387" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3387" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3387">
+        <v>346.96</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3388" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3388" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3388" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3388" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3388">
+        <v>204.73</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3389" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3389" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3389" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3389" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3389">
+        <v>226.14</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3390" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3390" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3390" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3390" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3390">
+        <v>233.44</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3391" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3391" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3391" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3391" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3391">
+        <v>196.82</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3392" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3392" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3392" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3392" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3392">
+        <v>264.82</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3393" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3393" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3393" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3393" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="H3393">
+        <v>158.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3393"/>
+  <dimension ref="A1:H3409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -102063,6 +102063,486 @@
         <v>158.26</v>
       </c>
     </row>
+    <row r="3394">
+      <c r="A3394" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3394" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3394" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3394" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3394" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3394">
+        <v>206.26</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3395" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3395" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3395" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3395" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3395">
+        <v>164.89</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3396" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3396" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3396" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3396" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3396">
+        <v>225.65</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3397" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3397" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3397" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3397" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3397">
+        <v>174.32</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3398" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3398" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3398" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3398" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3398">
+        <v>173.97</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3399" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3399" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3399" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3399" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3399">
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3400" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3400" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3400" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3400" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3400">
+        <v>265.79</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3401" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3401" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3401" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3401" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3401">
+        <v>243.56</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3402" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3402" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3402" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3402" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3402">
+        <v>338.21</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3403" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3403" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3403" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3403" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3403">
+        <v>339.66</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3404" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3404" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3404" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3404" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3404">
+        <v>198.51</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3405" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3405" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3405" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3405" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3405">
+        <v>221.58</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3406" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3406" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3406" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3406" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3406">
+        <v>236.99</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3407" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3407" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3407" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3407" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3407">
+        <v>206.92</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3408" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3408" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3408" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3408" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3408">
+        <v>253.56</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3409" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3409" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3409" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3409" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="H3409">
+        <v>163.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3409"/>
+  <dimension ref="A1:H3425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -102543,6 +102543,486 @@
         <v>163.71</v>
       </c>
     </row>
+    <row r="3410">
+      <c r="A3410" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3410" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3410" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3410" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3410" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3410">
+        <v>208.8</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3411" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3411" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3411" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3411" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3411">
+        <v>153.52</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3412" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3412" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3412" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3412" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3412">
+        <v>215.81</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3413" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3413" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3413" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3413" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3413">
+        <v>174.11</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3414" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3414" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3414" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3414" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3414">
+        <v>154.17</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3415" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3415" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3415" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3415" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3415">
+        <v>186.27</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3416" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3416" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3416" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3416" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3416">
+        <v>256.9</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3417" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3417" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3417" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3417" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3417">
+        <v>269.14</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3418" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3418" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3418" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3418" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3418">
+        <v>336.55</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3419" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3419" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3419" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3419" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3419">
+        <v>329.49</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3420" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3420" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3420" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3420" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3420">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3421" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3421" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3421" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3421">
+        <v>216.86</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3422" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3422" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3422" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3422" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3422">
+        <v>228.11</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3423" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3423" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3423" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3423" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3423">
+        <v>207.24</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3424" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3424" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3424" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3424" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3424">
+        <v>259.82</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3425" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3425" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3425" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3425" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="H3425">
+        <v>169.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3425"/>
+  <dimension ref="A1:H3441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -103023,6 +103023,486 @@
         <v>169.81</v>
       </c>
     </row>
+    <row r="3426">
+      <c r="A3426" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3426" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3426" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3426" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3426" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3426">
+        <v>211.69</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3427" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3427" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3427" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3427" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3427">
+        <v>150.08</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3428" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3428" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3428" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3428" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3428">
+        <v>212.23</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3429" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3429" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3429" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3429" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3429">
+        <v>166.82</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3430" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3430" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3430" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3430" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3430">
+        <v>146.63</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3431" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3431" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3431" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3431" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3431">
+        <v>174.83</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3432" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3432" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3432" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3432" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3432">
+        <v>278.12</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3433" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3433" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3433" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3433" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3433">
+        <v>282.71</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3434" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3434" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3434" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3434" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3434">
+        <v>306.3</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3435" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3435" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3435" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3435" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3435">
+        <v>312.15</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3436" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3436" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3436" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3436" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3436">
+        <v>194.16</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3437" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3437" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3437" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3437" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3437">
+        <v>204.67</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3438" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3438" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3438" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3438" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3438">
+        <v>237.59</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3439" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3439" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3439" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3439" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3439">
+        <v>235.93</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3440" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3440" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3440" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3440" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3440">
+        <v>257.6</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3441" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3441" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3441" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3441" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="H3441">
+        <v>175.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3441"/>
+  <dimension ref="A1:H3457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -103503,6 +103503,486 @@
         <v>175.43</v>
       </c>
     </row>
+    <row r="3442">
+      <c r="A3442" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3442" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3442" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3442" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3442" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3442">
+        <v>180.31</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3443" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3443" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3443" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3443" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3443">
+        <v>139.81</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3444" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3444" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3444" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3444" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3444">
+        <v>207.12</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3445" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3445" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3445" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3445" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3445">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3446" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3446" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3446" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3446" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3446">
+        <v>138.81</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3447" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3447" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3447" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3447" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3447">
+        <v>167.71</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3448" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3448" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3448" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3448" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3448">
+        <v>238.47</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3449" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3449" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3449" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3449" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3449">
+        <v>239.96</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3450" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3450" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3450" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3450" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3450">
+        <v>286.02</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3451" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3451" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3451" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3451" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3451">
+        <v>298.1</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3452" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3452" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3452" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3452" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3452">
+        <v>175.03</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3453" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3453" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3453" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3453" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3453">
+        <v>195.91</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3454" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3454" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3454" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3454" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3454">
+        <v>215.74</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3455" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3455" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3455" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3455" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3455">
+        <v>196.59</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3456" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3456" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3456" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3456" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3456">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3457" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3457" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3457" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3457" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="H3457">
+        <v>138.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20_mobility/apple/mobility.xlsx
+++ b/data/20_mobility/apple/mobility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3457"/>
+  <dimension ref="A1:H3473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -103983,6 +103983,486 @@
         <v>138.93</v>
       </c>
     </row>
+    <row r="3458">
+      <c r="A3458" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3458" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3458" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="D3458" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3458" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3458">
+        <v>191.97</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3459" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3459" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="D3459" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3459" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3459">
+        <v>134.48</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="inlineStr">
+        <is>
+          <t>country/region</t>
+        </is>
+      </c>
+      <c r="B3460" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C3460" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="D3460" t="inlineStr">
+        <is>
+          <t>Norge</t>
+        </is>
+      </c>
+      <c r="G3460" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3460">
+        <v>165.99</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3461" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3461" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3461" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3461" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3461">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3462" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3462" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="F3462" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3462" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3462">
+        <v>127.17</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B3463" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C3463" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F3463" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3463" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3463">
+        <v>140.29</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3464" t="inlineStr">
+        <is>
+          <t>Agder</t>
+        </is>
+      </c>
+      <c r="C3464" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3464" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3464" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3464">
+        <v>230.69</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3465" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="C3465" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3465" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3465" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3465">
+        <v>270.46</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3466" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C3466" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3466" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3466" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3466">
+        <v>278.97</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3467" t="inlineStr">
+        <is>
+          <t>Nordland</t>
+        </is>
+      </c>
+      <c r="C3467" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3467" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3467" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3467">
+        <v>266.73</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3468" t="inlineStr">
+        <is>
+          <t>Rogaland</t>
+        </is>
+      </c>
+      <c r="C3468" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3468" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3468" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3468">
+        <v>179.59</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3469" t="inlineStr">
+        <is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="C3469" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3469" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3469" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3469">
+        <v>184.85</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3470" t="inlineStr">
+        <is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="C3470" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3470" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3470" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3470">
+        <v>206.59</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3471" t="inlineStr">
+        <is>
+          <t>Vestfold og Telemark</t>
+        </is>
+      </c>
+      <c r="C3471" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3471" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3471" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3471">
+        <v>228.43</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3472" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C3472" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3472" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3472" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3472">
+        <v>226.63</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="inlineStr">
+        <is>
+          <t>sub-region</t>
+        </is>
+      </c>
+      <c r="B3473" t="inlineStr">
+        <is>
+          <t>Viken</t>
+        </is>
+      </c>
+      <c r="C3473" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="F3473" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G3473" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="H3473">
+        <v>171.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
